--- a/Test data/TC06_MakeAppointmentVaccine.xlsx
+++ b/Test data/TC06_MakeAppointmentVaccine.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\Project\Test data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA4B1C42-54EA-43ED-9A8C-0A37DB9151E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87E6C6D1-D3CB-4B4D-B561-DA82279100BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -230,10 +230,10 @@
     <xf numFmtId="49" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -542,8 +542,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.5"/>

--- a/Test data/TC06_MakeAppointmentVaccine.xlsx
+++ b/Test data/TC06_MakeAppointmentVaccine.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\Project\Test data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87E6C6D1-D3CB-4B4D-B561-DA82279100BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C458048-FFF4-4C1C-A6E8-13D3B3781FA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="24">
   <si>
     <t>TDID</t>
   </si>
@@ -32,9 +32,6 @@
   </si>
   <si>
     <t>Y</t>
-  </si>
-  <si>
-    <t>N</t>
   </si>
   <si>
     <t>Username</t>
@@ -543,7 +540,7 @@
   <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.5"/>
@@ -568,49 +565,49 @@
         <v>2</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>6</v>
-      </c>
       <c r="E1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="3" t="s">
-        <v>15</v>
-      </c>
       <c r="G1" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>1</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="E2" s="10" t="s">
         <v>8</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>9</v>
       </c>
       <c r="F2" s="8"/>
       <c r="G2" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H2" s="6"/>
       <c r="I2" s="6"/>
@@ -618,23 +615,23 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="5" t="s">
-        <v>8</v>
-      </c>
       <c r="E3" s="10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F3" s="9"/>
       <c r="G3" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H3" s="6"/>
       <c r="I3" s="6"/>
@@ -642,23 +639,23 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C4" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="5" t="s">
-        <v>8</v>
-      </c>
       <c r="E4" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F4" s="7"/>
       <c r="G4" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H4" s="6"/>
       <c r="I4" s="6"/>
@@ -666,25 +663,25 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="5" t="s">
-        <v>8</v>
-      </c>
       <c r="E5" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H5" s="6"/>
       <c r="I5" s="6"/>

--- a/Test data/TC06_MakeAppointmentVaccine.xlsx
+++ b/Test data/TC06_MakeAppointmentVaccine.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\Project\Test data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C458048-FFF4-4C1C-A6E8-13D3B3781FA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AB9BC1D-2A5B-46B4-B3DE-E635DA0FF654}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="39">
   <si>
     <t>TDID</t>
   </si>
@@ -52,12 +52,6 @@
     <t>เลือกวันที่เป็นช่องสีแดง</t>
   </si>
   <si>
-    <t>เลือกวันที่เป็นช่องสีเขียว</t>
-  </si>
-  <si>
-    <t>กรุณาเลือกวันที่เป็นช่องสีเขียวเท่านั้น</t>
-  </si>
-  <si>
     <t>นัดหมายฉีดวัคซีนสำเร็จ</t>
   </si>
   <si>
@@ -91,7 +85,58 @@
     <t>Expected result</t>
   </si>
   <si>
-    <t>เลือกช่วงเวลา</t>
+    <t>Revised</t>
+  </si>
+  <si>
+    <t>Error</t>
+  </si>
+  <si>
+    <t>เลือกวันที่เป็นช่องสีเขียวแต่เป็นวันในอดีต</t>
+  </si>
+  <si>
+    <t>เลือกวันที่เป็นช่องสีเขียวแต่เป็นวันปัจจุบัน</t>
+  </si>
+  <si>
+    <t>เลือกวันที่เป็นช่องสีเขียวและเป็นวันในอนาคต</t>
+  </si>
+  <si>
+    <t>วันที่เลือกไม่มีคิวให้นัดหมาย กรุณาเลือกวันที่เป็นช่องสีเขียวเท่านั้น</t>
+  </si>
+  <si>
+    <t>ไม่สามารถเลือกวันในอดีตหรือปัจจุบันได้</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>TD5</t>
+  </si>
+  <si>
+    <t>TD6</t>
+  </si>
+  <si>
+    <t>TD7</t>
+  </si>
+  <si>
+    <t>TD8</t>
+  </si>
+  <si>
+    <t>TD9</t>
+  </si>
+  <si>
+    <t>TD10</t>
   </si>
 </sst>
 </file>
@@ -198,7 +243,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -218,20 +263,23 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -537,27 +585,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.5"/>
   <cols>
-    <col min="1" max="2" width="9" style="1"/>
-    <col min="3" max="3" width="20.08984375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="17.1796875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="23.81640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="16.81640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="34.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.08984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="41.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="60.36328125" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15.26953125" style="1" customWidth="1"/>
     <col min="9" max="9" width="14.7265625" style="1" customWidth="1"/>
     <col min="10" max="10" width="15.6328125" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="1"/>
+    <col min="11" max="11" width="9" style="1"/>
+    <col min="12" max="12" width="13.26953125" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="20.399999999999999" customHeight="1">
+    <row r="1" spans="1:12" ht="20.399999999999999" customHeight="1">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -571,27 +622,33 @@
         <v>5</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>14</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>16</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>1</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
+        <v>21</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>3</v>
@@ -602,20 +659,22 @@
       <c r="D2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="8"/>
-      <c r="G2" s="2" t="s">
-        <v>11</v>
+      <c r="F2" s="9"/>
+      <c r="G2" s="6" t="s">
+        <v>26</v>
       </c>
       <c r="H2" s="6"/>
       <c r="I2" s="6"/>
       <c r="J2" s="6"/>
-    </row>
-    <row r="3" spans="1:10">
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>3</v>
@@ -626,20 +685,22 @@
       <c r="D3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="9"/>
-      <c r="G3" s="2" t="s">
-        <v>11</v>
+      <c r="F3" s="10"/>
+      <c r="G3" s="6" t="s">
+        <v>26</v>
       </c>
       <c r="H3" s="6"/>
       <c r="I3" s="6"/>
       <c r="J3" s="6"/>
-    </row>
-    <row r="4" spans="1:10">
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>3</v>
@@ -650,20 +711,22 @@
       <c r="D4" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="7"/>
-      <c r="G4" s="6" t="s">
-        <v>15</v>
+      <c r="E4" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="10"/>
+      <c r="G4" s="2" t="s">
+        <v>27</v>
       </c>
       <c r="H4" s="6"/>
       <c r="I4" s="6"/>
       <c r="J4" s="6"/>
-    </row>
-    <row r="5" spans="1:10">
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>3</v>
@@ -674,18 +737,184 @@
       <c r="D5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>12</v>
+      <c r="E5" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="10"/>
+      <c r="G5" s="2" t="s">
+        <v>27</v>
       </c>
       <c r="H5" s="6"/>
       <c r="I5" s="6"/>
       <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" s="11"/>
+      <c r="G6" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="6"/>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Test data/TC06_MakeAppointmentVaccine.xlsx
+++ b/Test data/TC06_MakeAppointmentVaccine.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\Project\Test data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AB9BC1D-2A5B-46B4-B3DE-E635DA0FF654}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19611C0D-E6A1-4145-B52C-3CF996C572A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -190,7 +190,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -212,6 +212,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -243,7 +249,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -269,16 +275,13 @@
     <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="49" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -588,23 +591,19 @@
   <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.5"/>
   <cols>
-    <col min="1" max="1" width="5.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.90625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.08984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.453125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="8.81640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="17.26953125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="12.54296875" style="1" customWidth="1"/>
     <col min="5" max="5" width="41.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.81640625" style="1" customWidth="1"/>
     <col min="7" max="7" width="60.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.26953125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="14.7265625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="15.6328125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="9" style="1"/>
-    <col min="12" max="12" width="13.26953125" style="1" customWidth="1"/>
+    <col min="8" max="12" width="13.36328125" style="1" customWidth="1"/>
     <col min="13" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -662,7 +661,7 @@
       <c r="E2" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="9"/>
+      <c r="F2" s="10"/>
       <c r="G2" s="6" t="s">
         <v>26</v>
       </c>
@@ -688,7 +687,7 @@
       <c r="E3" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="10"/>
+      <c r="F3" s="11"/>
       <c r="G3" s="6" t="s">
         <v>26</v>
       </c>
@@ -714,7 +713,7 @@
       <c r="E4" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="F4" s="10"/>
+      <c r="F4" s="11"/>
       <c r="G4" s="2" t="s">
         <v>27</v>
       </c>
@@ -740,7 +739,7 @@
       <c r="E5" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="F5" s="10"/>
+      <c r="F5" s="11"/>
       <c r="G5" s="2" t="s">
         <v>27</v>
       </c>
@@ -766,7 +765,7 @@
       <c r="E6" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="F6" s="11"/>
+      <c r="F6" s="9"/>
       <c r="G6" s="6" t="s">
         <v>13</v>
       </c>
@@ -792,7 +791,7 @@
       <c r="E7" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="F7" s="12" t="s">
+      <c r="F7" s="5" t="s">
         <v>28</v>
       </c>
       <c r="G7" s="6" t="s">
@@ -820,7 +819,7 @@
       <c r="E8" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="F8" s="12" t="s">
+      <c r="F8" s="5" t="s">
         <v>29</v>
       </c>
       <c r="G8" s="6" t="s">
@@ -848,7 +847,7 @@
       <c r="E9" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="F9" s="12" t="s">
+      <c r="F9" s="5" t="s">
         <v>30</v>
       </c>
       <c r="G9" s="6" t="s">
@@ -876,7 +875,7 @@
       <c r="E10" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="F10" s="12" t="s">
+      <c r="F10" s="5" t="s">
         <v>31</v>
       </c>
       <c r="G10" s="6" t="s">
